--- a/mid/dim/mid_dim_project_kpi_provide.xlsx
+++ b/mid/dim/mid_dim_project_kpi_provide.xlsx
@@ -9,9 +9,6 @@
   <sheets>
     <sheet name="mid_dim_project_kpi_provide" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">mid_dim_project_kpi_provide!$A$1:$N$152</definedName>
   </definedNames>
@@ -20,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="967" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1091" uniqueCount="226">
   <si>
     <t>kpi_project_name</t>
   </si>
@@ -695,6 +692,9 @@
   </si>
   <si>
     <t>郑州鑫家二期</t>
+  </si>
+  <si>
+    <t>郑州鑫家二期西苑</t>
   </si>
 </sst>
 </file>
@@ -702,10 +702,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -725,45 +725,9 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -771,22 +735,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -801,14 +749,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -816,30 +756,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -853,11 +777,65 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -870,7 +848,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -903,78 +903,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -987,7 +915,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -999,7 +981,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1011,43 +1041,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1059,13 +1059,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1077,13 +1083,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1094,15 +1094,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1117,35 +1108,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1180,6 +1142,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1194,151 +1174,171 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1420,845 +1420,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1">
-        <row r="1">
-          <cell r="B1" t="str">
-            <v>PROJECT_NAME</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="B2" t="str">
-            <v>郑州鑫苑名家</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="B3" t="str">
-            <v>郑州陇海星级花园</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="B4" t="str">
-            <v>郑州都市家园</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="B5" t="str">
-            <v>郑州都市领地</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="B6" t="str">
-            <v>郑州中央花园东苑</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="B7" t="str">
-            <v>郑州中央花园西苑</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="B8" t="str">
-            <v>郑州城市之家</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="B9" t="str">
-            <v>郑州国际城市花园</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="B10" t="str">
-            <v>郑州国际广场</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="B11" t="str">
-            <v>郑州都市公寓</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="B12" t="str">
-            <v>郑州金融广场</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="B13" t="str">
-            <v>郑州景园</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="B14" t="str">
-            <v>郑州逸品香山一期</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="B15" t="str">
-            <v>郑州逸品香山二期</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="B16" t="str">
-            <v>郑州现代城</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="B17" t="str">
-            <v>郑州世纪东城东苑</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="B18" t="str">
-            <v>郑州世纪东城西苑</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="B19" t="str">
-            <v>郑州鑫苑世家</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="B20" t="str">
-            <v>郑州鑫苑鑫城</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="B21" t="str">
-            <v>郑州鑫家</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="B22" t="str">
-            <v>郑州财智名座</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="B23" t="str">
-            <v>三门峡博丰明钻</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="B24" t="str">
-            <v>郑州国际新城</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="B25" t="str">
-            <v>西安鑫苑中心</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="B26" t="str">
-            <v>焦作鹿港小镇</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="B27" t="str">
-            <v>焦作中弘名瑞城</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="B28" t="str">
-            <v>焦作东方红国际广场</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="B29" t="str">
-            <v>驻马店泌阳尚东第一城</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="B30" t="str">
-            <v>漯河天翼星公馆</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="B31" t="str">
-            <v>漯河伯爵山</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="B32" t="str">
-            <v>漯河临颍绿城国际</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="B33" t="str">
-            <v>新乡金域蓝湾</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="B34" t="str">
-            <v>济南城市之家</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="B35" t="str">
-            <v>济南鑫苑名家一二期</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="B36" t="str">
-            <v>济南鑫苑名家三期南</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="B37" t="str">
-            <v>济南鑫苑名家三期北</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="B38" t="str">
-            <v>济南碧水尚景</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="B39" t="str">
-            <v>济南国际城市花园</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="B40" t="str">
-            <v>济南鑫中心</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="B41" t="str">
-            <v>济南世家公馆一期</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="B42" t="str">
-            <v>苏州湖岸名家</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="B43" t="str">
-            <v>苏州景园</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="B44" t="str">
-            <v>苏州国际城市花园</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="B45" t="str">
-            <v>苏州鑫城</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="B46" t="str">
-            <v>苏州湖居世家</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="B47" t="str">
-            <v>合肥望江花园</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="B48" t="str">
-            <v>三门峡灵宝锦悦华庭</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="B49" t="str">
-            <v>昆山国际城市花园</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="B50" t="str">
-            <v>昆山水岸世家</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="B51" t="str">
-            <v>成都鑫苑名家一期</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="B52" t="str">
-            <v>成都鑫苑名家二期</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="B53" t="str">
-            <v>成都鑫都汇</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="B54" t="str">
-            <v>徐州景园</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="B55" t="str">
-            <v>徐州景城</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="B56" t="str">
-            <v>上海壹品世家</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="B57" t="str">
-            <v>西安大都汇</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="B58" t="str">
-            <v>北京鑫都汇</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="B59" t="str">
-            <v>长沙梅溪鑫苑名家</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="B60" t="str">
-            <v>三亚崖州湾</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="B61" t="str">
-            <v>郑西鑫苑名家</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="B62" t="str">
-            <v>测试项目</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="B63" t="str">
-            <v>天津汤泉世家</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="B64" t="str">
-            <v>三门峡滨河花城</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="B65" t="str">
-            <v>濮阳翰林居</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="B66" t="str">
-            <v>北京菊源里</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="B67" t="str">
-            <v>郑州都汇广场</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="B68" t="str">
-            <v>鹤壁聆海御园</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="B69" t="str">
-            <v>三门峡书香苑</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="B70" t="str">
-            <v>漯河滨湖国际</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="B71" t="str">
-            <v>巩义天玺华府</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="B72" t="str">
-            <v>三门峡熙龙湾</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="B73" t="str">
-            <v>漯河六和世家</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="B74" t="str">
-            <v>濮阳银堤漫步</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="B75" t="str">
-            <v>郑州鑫苑名城一期</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="B76" t="str">
-            <v>濮阳龙湖华苑</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="B77" t="str">
-            <v>郑州鑫家二期</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="B78" t="str">
-            <v>信阳博林国际广场</v>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="B79" t="str">
-            <v>郑州鑫苑名城二期</v>
-          </cell>
-        </row>
-        <row r="80">
-          <cell r="B80" t="str">
-            <v>新乡褐石公园</v>
-          </cell>
-        </row>
-        <row r="81">
-          <cell r="B81" t="str">
-            <v>青柠公寓</v>
-          </cell>
-        </row>
-        <row r="82">
-          <cell r="B82" t="str">
-            <v>安阳水木兰亭</v>
-          </cell>
-        </row>
-        <row r="83">
-          <cell r="B83" t="str">
-            <v>郑西鑫苑名家三期</v>
-          </cell>
-        </row>
-        <row r="84">
-          <cell r="B84" t="str">
-            <v>郑州鑫苑名城三期</v>
-          </cell>
-        </row>
-        <row r="85">
-          <cell r="B85" t="str">
-            <v>郑州正道和苑</v>
-          </cell>
-        </row>
-        <row r="86">
-          <cell r="B86" t="str">
-            <v>漯河尚书房</v>
-          </cell>
-        </row>
-        <row r="87">
-          <cell r="B87" t="str">
-            <v>三门峡滨河湾</v>
-          </cell>
-        </row>
-        <row r="88">
-          <cell r="B88" t="str">
-            <v>济南青岛金光大厦</v>
-          </cell>
-        </row>
-        <row r="89">
-          <cell r="B89" t="str">
-            <v>焦作中弘名仕城</v>
-          </cell>
-        </row>
-        <row r="90">
-          <cell r="B90" t="str">
-            <v>昆山陆家山水江南</v>
-          </cell>
-        </row>
-        <row r="91">
-          <cell r="B91" t="str">
-            <v>郑州宏江瀚苑</v>
-          </cell>
-        </row>
-        <row r="92">
-          <cell r="B92" t="str">
-            <v>漯河锦华国际</v>
-          </cell>
-        </row>
-        <row r="93">
-          <cell r="B93" t="str">
-            <v>郑州鑫家二期西苑</v>
-          </cell>
-        </row>
-        <row r="94">
-          <cell r="B94" t="str">
-            <v>济南世家公馆三期</v>
-          </cell>
-        </row>
-        <row r="95">
-          <cell r="B95" t="str">
-            <v>新乡金谷东方广场</v>
-          </cell>
-        </row>
-        <row r="96">
-          <cell r="B96" t="str">
-            <v>驻马店湖滨新城</v>
-          </cell>
-        </row>
-        <row r="97">
-          <cell r="B97" t="str">
-            <v>郑州国际新城二期</v>
-          </cell>
-        </row>
-        <row r="98">
-          <cell r="B98" t="str">
-            <v>郑州中林嘉苑</v>
-          </cell>
-        </row>
-        <row r="99">
-          <cell r="B99" t="str">
-            <v>淮安严赵花园</v>
-          </cell>
-        </row>
-        <row r="100">
-          <cell r="B100" t="str">
-            <v>昆山鑫都汇</v>
-          </cell>
-        </row>
-        <row r="101">
-          <cell r="B101" t="str">
-            <v>郑州金水观城一期</v>
-          </cell>
-        </row>
-        <row r="102">
-          <cell r="B102" t="str">
-            <v>博雅金融广场</v>
-          </cell>
-        </row>
-        <row r="103">
-          <cell r="B103" t="str">
-            <v>地暖清洁</v>
-          </cell>
-        </row>
-        <row r="104">
-          <cell r="B104" t="str">
-            <v>青岛灵山湾龙玺</v>
-          </cell>
-        </row>
-        <row r="105">
-          <cell r="B105" t="str">
-            <v>青岛御龙湾</v>
-          </cell>
-        </row>
-        <row r="106">
-          <cell r="B106" t="str">
-            <v>长沙鑫苑木莲世家</v>
-          </cell>
-        </row>
-        <row r="107">
-          <cell r="B107" t="str">
-            <v>前介职能</v>
-          </cell>
-        </row>
-        <row r="108">
-          <cell r="B108" t="str">
-            <v>驻马店爱森庄园壹号</v>
-          </cell>
-        </row>
-        <row r="109">
-          <cell r="B109" t="str">
-            <v>焦作鹿港花园</v>
-          </cell>
-        </row>
-        <row r="110">
-          <cell r="B110" t="str">
-            <v>漯河世界贸易中心</v>
-          </cell>
-        </row>
-        <row r="111">
-          <cell r="B111" t="str">
-            <v>济南世家公馆二期</v>
-          </cell>
-        </row>
-        <row r="112">
-          <cell r="B112" t="str">
-            <v>郑州明天璀丽华庭</v>
-          </cell>
-        </row>
-        <row r="113">
-          <cell r="B113" t="str">
-            <v>章丘御泉湾</v>
-          </cell>
-        </row>
-        <row r="114">
-          <cell r="B114" t="str">
-            <v>暖场活动</v>
-          </cell>
-        </row>
-        <row r="115">
-          <cell r="B115" t="str">
-            <v>成都鑫苑城</v>
-          </cell>
-        </row>
-        <row r="116">
-          <cell r="B116" t="str">
-            <v>长沙鑫苑芙蓉鑫家</v>
-          </cell>
-        </row>
-        <row r="117">
-          <cell r="B117" t="str">
-            <v>郑州古德佳苑</v>
-          </cell>
-        </row>
-        <row r="118">
-          <cell r="B118" t="str">
-            <v>夏邑联盟新城</v>
-          </cell>
-        </row>
-        <row r="119">
-          <cell r="B119" t="str">
-            <v>案场职能</v>
-          </cell>
-        </row>
-        <row r="120">
-          <cell r="B120" t="str">
-            <v>郑西中房华纳龙熙湾</v>
-          </cell>
-        </row>
-        <row r="121">
-          <cell r="B121" t="str">
-            <v>郑州国际新城安置区</v>
-          </cell>
-        </row>
-        <row r="122">
-          <cell r="B122" t="str">
-            <v>郑州航美国际智慧城</v>
-          </cell>
-        </row>
-        <row r="123">
-          <cell r="B123" t="str">
-            <v>焦作中弘名珺城</v>
-          </cell>
-        </row>
-        <row r="124">
-          <cell r="B124" t="str">
-            <v>信阳南湖燕园</v>
-          </cell>
-        </row>
-        <row r="125">
-          <cell r="B125" t="str">
-            <v>郑州伞花苑</v>
-          </cell>
-        </row>
-        <row r="126">
-          <cell r="B126" t="str">
-            <v>淮安佳兴南苑</v>
-          </cell>
-        </row>
-        <row r="127">
-          <cell r="B127" t="str">
-            <v>濮阳中房锦绣龙城</v>
-          </cell>
-        </row>
-        <row r="128">
-          <cell r="B128" t="str">
-            <v>三门峡城明佳苑</v>
-          </cell>
-        </row>
-        <row r="129">
-          <cell r="B129" t="str">
-            <v>周口西华迎宾壹号院</v>
-          </cell>
-        </row>
-        <row r="130">
-          <cell r="B130" t="str">
-            <v>新蔡宝利城市广场</v>
-          </cell>
-        </row>
-        <row r="131">
-          <cell r="B131" t="str">
-            <v>滨海华芳颐景花园</v>
-          </cell>
-        </row>
-        <row r="132">
-          <cell r="B132" t="str">
-            <v>郑州鑫苑府</v>
-          </cell>
-        </row>
-        <row r="133">
-          <cell r="B133" t="str">
-            <v>苏州姑苏樾</v>
-          </cell>
-        </row>
-        <row r="134">
-          <cell r="B134" t="str">
-            <v>新沂金鳞府</v>
-          </cell>
-        </row>
-        <row r="135">
-          <cell r="B135" t="str">
-            <v>郑州国际新城三期B</v>
-          </cell>
-        </row>
-        <row r="136">
-          <cell r="B136" t="str">
-            <v>郑州国际新城三期C</v>
-          </cell>
-        </row>
-        <row r="137">
-          <cell r="B137" t="str">
-            <v>郑州航美国际智慧城二期</v>
-          </cell>
-        </row>
-        <row r="138">
-          <cell r="B138" t="str">
-            <v>开封兰大豪庭</v>
-          </cell>
-        </row>
-        <row r="139">
-          <cell r="B139" t="str">
-            <v>郑西鑫苑名家四期</v>
-          </cell>
-        </row>
-        <row r="140">
-          <cell r="B140" t="str">
-            <v>淮安黄元小区</v>
-          </cell>
-        </row>
-        <row r="141">
-          <cell r="B141" t="str">
-            <v>淮安佳兴北苑</v>
-          </cell>
-        </row>
-        <row r="142">
-          <cell r="B142" t="str">
-            <v>淮安南方花园</v>
-          </cell>
-        </row>
-        <row r="143">
-          <cell r="B143" t="str">
-            <v>钢城百一至百五生活区</v>
-          </cell>
-        </row>
-        <row r="144">
-          <cell r="B144" t="str">
-            <v>郑州小铺新苑</v>
-          </cell>
-        </row>
-        <row r="145">
-          <cell r="B145" t="str">
-            <v>郑州国际新城三期A</v>
-          </cell>
-        </row>
-        <row r="146">
-          <cell r="B146" t="str">
-            <v>青岛科达御龙湾</v>
-          </cell>
-        </row>
-        <row r="147">
-          <cell r="B147" t="str">
-            <v>三门峡安和苑</v>
-          </cell>
-        </row>
-        <row r="148">
-          <cell r="B148" t="str">
-            <v>驻马店中原国际城</v>
-          </cell>
-        </row>
-        <row r="149">
-          <cell r="B149" t="str">
-            <v>鑫怡美好生活</v>
-          </cell>
-        </row>
-        <row r="150">
-          <cell r="B150" t="str">
-            <v>郑州奥体公馆</v>
-          </cell>
-        </row>
-        <row r="151">
-          <cell r="B151" t="str">
-            <v>淮安盐河花苑</v>
-          </cell>
-        </row>
-        <row r="152">
-          <cell r="B152" t="str">
-            <v>佛山鑫苑城</v>
-          </cell>
-        </row>
-        <row r="153">
-          <cell r="B153" t="str">
-            <v>郑州国际新城三期D</v>
-          </cell>
-        </row>
-        <row r="154">
-          <cell r="B154" t="str">
-            <v>驻马店高铁壹号</v>
-          </cell>
-        </row>
-        <row r="155">
-          <cell r="B155" t="str">
-            <v>驻马店兴悦一品</v>
-          </cell>
-        </row>
-        <row r="156">
-          <cell r="B156" t="str">
-            <v>郑州民航花园</v>
-          </cell>
-        </row>
-        <row r="157">
-          <cell r="B157" t="str">
-            <v>许昌禹州钧都府</v>
-          </cell>
-        </row>
-        <row r="158">
-          <cell r="B158" t="str">
-            <v>淮安黄元小区四期</v>
-          </cell>
-        </row>
-        <row r="159">
-          <cell r="B159" t="str">
-            <v>信阳淮滨福地华府</v>
-          </cell>
-        </row>
-        <row r="160">
-          <cell r="B160" t="str">
-            <v>郑州名城二期公寓</v>
-          </cell>
-        </row>
-        <row r="161">
-          <cell r="B161" t="str">
-            <v>信阳香山御府</v>
-          </cell>
-        </row>
-        <row r="162">
-          <cell r="B162" t="str">
-            <v>中原制药厂</v>
-          </cell>
-        </row>
-        <row r="163">
-          <cell r="B163" t="str">
-            <v>郑州鑫苑悦府</v>
-          </cell>
-        </row>
-        <row r="164">
-          <cell r="B164" t="str">
-            <v>重庆红岩山水坊</v>
-          </cell>
-        </row>
-        <row r="165">
-          <cell r="B165" t="str">
-            <v>太仓翡翠观澜花苑</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2526,7 +1687,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J47" sqref="J47"/>
+      <selection pane="bottomRight" activeCell="H48" sqref="H48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2589,9 +1750,8 @@
       <c r="A2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="6" t="str">
-        <f>VLOOKUP(A2,[1]Sheet1!$B:$B,1,FALSE)</f>
-        <v>郑州鑫苑名家</v>
+      <c r="B2" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
@@ -2629,9 +1789,8 @@
       <c r="A3" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="6" t="str">
-        <f>VLOOKUP(A3,[1]Sheet1!$B:$B,1,FALSE)</f>
-        <v>郑州都市家园</v>
+      <c r="B3" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="C3" t="s">
         <v>18</v>
@@ -2669,9 +1828,8 @@
       <c r="A4" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="6" t="str">
-        <f>VLOOKUP(A4,[1]Sheet1!$B:$B,1,FALSE)</f>
-        <v>郑州金融广场</v>
+      <c r="B4" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="C4" t="s">
         <v>20</v>
@@ -2709,9 +1867,8 @@
       <c r="A5" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="6" t="str">
-        <f>VLOOKUP(A5,[1]Sheet1!$B:$B,1,FALSE)</f>
-        <v>郑州逸品香山一期</v>
+      <c r="B5" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="C5" t="s">
         <v>21</v>
@@ -2749,9 +1906,8 @@
       <c r="A6" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="6" t="str">
-        <f>VLOOKUP(A6,[1]Sheet1!$B:$B,1,FALSE)</f>
-        <v>郑州逸品香山二期</v>
+      <c r="B6" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="C6" t="s">
         <v>22</v>
@@ -2789,9 +1945,8 @@
       <c r="A7" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="6" t="str">
-        <f>VLOOKUP(A7,[1]Sheet1!$B:$B,1,FALSE)</f>
-        <v>郑州鑫苑世家</v>
+      <c r="B7" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="C7" t="s">
         <v>23</v>
@@ -2907,9 +2062,8 @@
       <c r="A10" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="6" t="str">
-        <f>VLOOKUP(A10,[1]Sheet1!$B:$B,1,FALSE)</f>
-        <v>郑州城市之家</v>
+      <c r="B10" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="C10" t="s">
         <v>27</v>
@@ -3025,9 +2179,8 @@
       <c r="A13" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="6" t="str">
-        <f>VLOOKUP(A13,[1]Sheet1!$B:$B,1,FALSE)</f>
-        <v>郑州国际城市花园</v>
+      <c r="B13" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="C13" t="s">
         <v>31</v>
@@ -3065,9 +2218,8 @@
       <c r="A14" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="6" t="str">
-        <f>VLOOKUP(A14,[1]Sheet1!$B:$B,1,FALSE)</f>
-        <v>郑州国际广场</v>
+      <c r="B14" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="C14" t="s">
         <v>32</v>
@@ -3105,9 +2257,8 @@
       <c r="A15" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="6" t="str">
-        <f>VLOOKUP(A15,[1]Sheet1!$B:$B,1,FALSE)</f>
-        <v>郑州都市公寓</v>
+      <c r="B15" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="C15" t="s">
         <v>33</v>
@@ -3145,9 +2296,8 @@
       <c r="A16" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="6" t="str">
-        <f>VLOOKUP(A16,[1]Sheet1!$B:$B,1,FALSE)</f>
-        <v>郑州景园</v>
+      <c r="B16" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="C16" t="s">
         <v>34</v>
@@ -3185,9 +2335,8 @@
       <c r="A17" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="6" t="str">
-        <f>VLOOKUP(A17,[1]Sheet1!$B:$B,1,FALSE)</f>
-        <v>郑州都市领地</v>
+      <c r="B17" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="C17" t="s">
         <v>35</v>
@@ -3227,9 +2376,8 @@
       <c r="A18" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="6" t="str">
-        <f>VLOOKUP(A18,[1]Sheet1!$B:$B,1,FALSE)</f>
-        <v>郑西鑫苑名家四期</v>
+      <c r="B18" s="6" t="s">
+        <v>36</v>
       </c>
       <c r="C18" t="s">
         <v>37</v>
@@ -3242,9 +2390,8 @@
       <c r="A19" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="6" t="str">
-        <f>VLOOKUP(A19,[1]Sheet1!$B:$B,1,FALSE)</f>
-        <v>郑州伞花苑</v>
+      <c r="B19" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="C19" t="s">
         <v>38</v>
@@ -3284,9 +2431,8 @@
       <c r="A20" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="6" t="str">
-        <f>VLOOKUP(A20,[1]Sheet1!$B:$B,1,FALSE)</f>
-        <v>郑西中房华纳龙熙湾</v>
+      <c r="B20" s="6" t="s">
+        <v>40</v>
       </c>
       <c r="C20" t="s">
         <v>41</v>
@@ -3324,9 +2470,8 @@
       <c r="A21" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="6" t="str">
-        <f>VLOOKUP(A21,[1]Sheet1!$B:$B,1,FALSE)</f>
-        <v>郑州陇海星级花园</v>
+      <c r="B21" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="C21" t="s">
         <v>42</v>
@@ -3380,9 +2525,8 @@
       <c r="A23" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="6" t="str">
-        <f>VLOOKUP(A23,[1]Sheet1!$B:$B,1,FALSE)</f>
-        <v>郑州现代城</v>
+      <c r="B23" s="6" t="s">
+        <v>44</v>
       </c>
       <c r="C23" t="s">
         <v>44</v>
@@ -3420,9 +2564,8 @@
       <c r="A24" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="6" t="str">
-        <f>VLOOKUP(A24,[1]Sheet1!$B:$B,1,FALSE)</f>
-        <v>郑州鑫苑鑫城</v>
+      <c r="B24" s="6" t="s">
+        <v>45</v>
       </c>
       <c r="C24" t="s">
         <v>45</v>
@@ -3460,9 +2603,8 @@
       <c r="A25" t="s">
         <v>37</v>
       </c>
-      <c r="B25" s="6" t="str">
-        <f>VLOOKUP(A25,[1]Sheet1!$B:$B,1,FALSE)</f>
-        <v>郑西鑫苑名家</v>
+      <c r="B25" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="C25" t="s">
         <v>37</v>
@@ -3500,9 +2642,8 @@
       <c r="A26" t="s">
         <v>46</v>
       </c>
-      <c r="B26" s="6" t="str">
-        <f>VLOOKUP(A26,[1]Sheet1!$B:$B,1,FALSE)</f>
-        <v>郑西鑫苑名家三期</v>
+      <c r="B26" s="6" t="s">
+        <v>46</v>
       </c>
       <c r="C26" t="s">
         <v>37</v>
@@ -3540,9 +2681,8 @@
       <c r="A27" t="s">
         <v>47</v>
       </c>
-      <c r="B27" s="6" t="str">
-        <f>VLOOKUP(A27,[1]Sheet1!$B:$B,1,FALSE)</f>
-        <v>郑州鑫家</v>
+      <c r="B27" s="6" t="s">
+        <v>47</v>
       </c>
       <c r="C27" t="s">
         <v>47</v>
@@ -3580,9 +2720,8 @@
       <c r="A28" t="s">
         <v>48</v>
       </c>
-      <c r="B28" s="6" t="str">
-        <f>VLOOKUP(A28,[1]Sheet1!$B:$B,1,FALSE)</f>
-        <v>郑州都汇广场</v>
+      <c r="B28" s="6" t="s">
+        <v>48</v>
       </c>
       <c r="C28" t="s">
         <v>48</v>
@@ -3698,9 +2837,8 @@
       <c r="A31" t="s">
         <v>53</v>
       </c>
-      <c r="B31" s="6" t="str">
-        <f>VLOOKUP(A31,[1]Sheet1!$B:$B,1,FALSE)</f>
-        <v>郑州名城二期公寓</v>
+      <c r="B31" s="6" t="s">
+        <v>53</v>
       </c>
       <c r="C31" t="s">
         <v>54</v>
@@ -3741,9 +2879,8 @@
       <c r="A32" t="s">
         <v>56</v>
       </c>
-      <c r="B32" s="6" t="str">
-        <f>VLOOKUP(A32,[1]Sheet1!$B:$B,1,FALSE)</f>
-        <v>郑州鑫苑名城三期</v>
+      <c r="B32" s="6" t="s">
+        <v>56</v>
       </c>
       <c r="C32" t="s">
         <v>57</v>
@@ -3782,9 +2919,8 @@
       <c r="A33" t="s">
         <v>59</v>
       </c>
-      <c r="B33" s="6" t="str">
-        <f>VLOOKUP(A33,[1]Sheet1!$B:$B,1,FALSE)</f>
-        <v>郑州国际新城</v>
+      <c r="B33" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="C33" t="s">
         <v>59</v>
@@ -3822,9 +2958,8 @@
       <c r="A34" t="s">
         <v>60</v>
       </c>
-      <c r="B34" s="6" t="str">
-        <f>VLOOKUP(A34,[1]Sheet1!$B:$B,1,FALSE)</f>
-        <v>郑州国际新城二期</v>
+      <c r="B34" s="6" t="s">
+        <v>60</v>
       </c>
       <c r="C34" t="s">
         <v>61</v>
@@ -3862,9 +2997,8 @@
       <c r="A35" t="s">
         <v>62</v>
       </c>
-      <c r="B35" s="6" t="str">
-        <f>VLOOKUP(A35,[1]Sheet1!$B:$B,1,FALSE)</f>
-        <v>郑州国际新城安置区</v>
+      <c r="B35" s="6" t="s">
+        <v>62</v>
       </c>
       <c r="C35" t="s">
         <v>62</v>
@@ -3904,9 +3038,8 @@
       <c r="A36" t="s">
         <v>63</v>
       </c>
-      <c r="B36" s="6" t="str">
-        <f>VLOOKUP(A36,[1]Sheet1!$B:$B,1,FALSE)</f>
-        <v>郑州航美国际智慧城</v>
+      <c r="B36" s="6" t="s">
+        <v>63</v>
       </c>
       <c r="C36" t="s">
         <v>64</v>
@@ -3983,9 +3116,8 @@
       <c r="A38" t="s">
         <v>66</v>
       </c>
-      <c r="B38" s="6" t="str">
-        <f>VLOOKUP(A38,[1]Sheet1!$B:$B,1,FALSE)</f>
-        <v>郑州航美国际智慧城二期</v>
+      <c r="B38" s="6" t="s">
+        <v>66</v>
       </c>
       <c r="C38" t="s">
         <v>67</v>
@@ -4026,9 +3158,8 @@
       <c r="A39" t="s">
         <v>69</v>
       </c>
-      <c r="B39" s="6" t="str">
-        <f>VLOOKUP(A39,[1]Sheet1!$B:$B,1,FALSE)</f>
-        <v>济南城市之家</v>
+      <c r="B39" s="6" t="s">
+        <v>69</v>
       </c>
       <c r="C39" t="s">
         <v>69</v>
@@ -4066,9 +3197,8 @@
       <c r="A40" t="s">
         <v>70</v>
       </c>
-      <c r="B40" s="6" t="str">
-        <f>VLOOKUP(A40,[1]Sheet1!$B:$B,1,FALSE)</f>
-        <v>济南碧水尚景</v>
+      <c r="B40" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="C40" t="s">
         <v>70</v>
@@ -4106,9 +3236,8 @@
       <c r="A41" t="s">
         <v>71</v>
       </c>
-      <c r="B41" s="6" t="str">
-        <f>VLOOKUP(A41,[1]Sheet1!$B:$B,1,FALSE)</f>
-        <v>济南国际城市花园</v>
+      <c r="B41" s="6" t="s">
+        <v>71</v>
       </c>
       <c r="C41" t="s">
         <v>71</v>
@@ -4146,9 +3275,8 @@
       <c r="A42" t="s">
         <v>72</v>
       </c>
-      <c r="B42" s="6" t="str">
-        <f>VLOOKUP(A42,[1]Sheet1!$B:$B,1,FALSE)</f>
-        <v>济南鑫苑名家一二期</v>
+      <c r="B42" s="6" t="s">
+        <v>72</v>
       </c>
       <c r="C42" t="s">
         <v>73</v>
@@ -4186,9 +3314,8 @@
       <c r="A43" t="s">
         <v>74</v>
       </c>
-      <c r="B43" s="6" t="str">
-        <f>VLOOKUP(A43,[1]Sheet1!$B:$B,1,FALSE)</f>
-        <v>济南鑫苑名家三期北</v>
+      <c r="B43" s="6" t="s">
+        <v>74</v>
       </c>
       <c r="C43" t="s">
         <v>75</v>
@@ -4223,9 +3350,8 @@
       <c r="A44" t="s">
         <v>76</v>
       </c>
-      <c r="B44" s="6" t="str">
-        <f>VLOOKUP(A44,[1]Sheet1!$B:$B,1,FALSE)</f>
-        <v>济南鑫苑名家三期南</v>
+      <c r="B44" s="6" t="s">
+        <v>76</v>
       </c>
       <c r="C44" t="s">
         <v>77</v>
@@ -4377,9 +3503,8 @@
       <c r="A48" t="s">
         <v>82</v>
       </c>
-      <c r="B48" s="6" t="str">
-        <f>VLOOKUP(A48,[1]Sheet1!$B:$B,1,FALSE)</f>
-        <v>济南鑫中心</v>
+      <c r="B48" s="6" t="s">
+        <v>82</v>
       </c>
       <c r="C48" t="s">
         <v>82</v>
@@ -4417,9 +3542,8 @@
       <c r="A49" t="s">
         <v>83</v>
       </c>
-      <c r="B49" s="6" t="str">
-        <f>VLOOKUP(A49,[1]Sheet1!$B:$B,1,FALSE)</f>
-        <v>章丘御泉湾</v>
+      <c r="B49" s="6" t="s">
+        <v>83</v>
       </c>
       <c r="C49" t="s">
         <v>84</v>
@@ -4498,9 +3622,8 @@
       <c r="A51" t="s">
         <v>89</v>
       </c>
-      <c r="B51" s="6" t="str">
-        <f>VLOOKUP(A51,[1]Sheet1!$B:$B,1,FALSE)</f>
-        <v>合肥望江花园</v>
+      <c r="B51" s="6" t="s">
+        <v>89</v>
       </c>
       <c r="C51" t="s">
         <v>89</v>
@@ -4538,9 +3661,8 @@
       <c r="A52" t="s">
         <v>90</v>
       </c>
-      <c r="B52" s="6" t="str">
-        <f>VLOOKUP(A52,[1]Sheet1!$B:$B,1,FALSE)</f>
-        <v>三亚崖州湾</v>
+      <c r="B52" s="6" t="s">
+        <v>90</v>
       </c>
       <c r="C52" t="s">
         <v>90</v>
@@ -4578,9 +3700,8 @@
       <c r="A53" t="s">
         <v>91</v>
       </c>
-      <c r="B53" s="6" t="str">
-        <f>VLOOKUP(A53,[1]Sheet1!$B:$B,1,FALSE)</f>
-        <v>徐州景园</v>
+      <c r="B53" s="6" t="s">
+        <v>91</v>
       </c>
       <c r="C53" t="s">
         <v>91</v>
@@ -4618,9 +3739,8 @@
       <c r="A54" t="s">
         <v>92</v>
       </c>
-      <c r="B54" s="6" t="str">
-        <f>VLOOKUP(A54,[1]Sheet1!$B:$B,1,FALSE)</f>
-        <v>徐州景城</v>
+      <c r="B54" s="6" t="s">
+        <v>92</v>
       </c>
       <c r="C54" t="s">
         <v>92</v>
@@ -4736,9 +3856,8 @@
       <c r="A57" t="s">
         <v>96</v>
       </c>
-      <c r="B57" s="6" t="str">
-        <f>VLOOKUP(A57,[1]Sheet1!$B:$B,1,FALSE)</f>
-        <v>成都鑫都汇</v>
+      <c r="B57" s="6" t="s">
+        <v>96</v>
       </c>
       <c r="C57" t="s">
         <v>96</v>
@@ -4776,9 +3895,8 @@
       <c r="A58" t="s">
         <v>97</v>
       </c>
-      <c r="B58" s="6" t="str">
-        <f>VLOOKUP(A58,[1]Sheet1!$B:$B,1,FALSE)</f>
-        <v>苏州湖岸名家</v>
+      <c r="B58" s="6" t="s">
+        <v>97</v>
       </c>
       <c r="C58" t="s">
         <v>97</v>
@@ -4816,9 +3934,8 @@
       <c r="A59" t="s">
         <v>98</v>
       </c>
-      <c r="B59" s="6" t="str">
-        <f>VLOOKUP(A59,[1]Sheet1!$B:$B,1,FALSE)</f>
-        <v>苏州景园</v>
+      <c r="B59" s="6" t="s">
+        <v>98</v>
       </c>
       <c r="C59" t="s">
         <v>98</v>
@@ -4856,9 +3973,8 @@
       <c r="A60" t="s">
         <v>99</v>
       </c>
-      <c r="B60" s="6" t="str">
-        <f>VLOOKUP(A60,[1]Sheet1!$B:$B,1,FALSE)</f>
-        <v>苏州国际城市花园</v>
+      <c r="B60" s="6" t="s">
+        <v>99</v>
       </c>
       <c r="C60" t="s">
         <v>99</v>
@@ -4898,9 +4014,8 @@
       <c r="A61" t="s">
         <v>100</v>
       </c>
-      <c r="B61" s="6" t="str">
-        <f>VLOOKUP(A61,[1]Sheet1!$B:$B,1,FALSE)</f>
-        <v>苏州鑫城</v>
+      <c r="B61" s="6" t="s">
+        <v>100</v>
       </c>
       <c r="C61" t="s">
         <v>100</v>
@@ -4938,9 +4053,8 @@
       <c r="A62" t="s">
         <v>101</v>
       </c>
-      <c r="B62" s="6" t="str">
-        <f>VLOOKUP(A62,[1]Sheet1!$B:$B,1,FALSE)</f>
-        <v>苏州湖居世家</v>
+      <c r="B62" s="6" t="s">
+        <v>101</v>
       </c>
       <c r="C62" t="s">
         <v>101</v>
@@ -4978,9 +4092,8 @@
       <c r="A63" t="s">
         <v>102</v>
       </c>
-      <c r="B63" s="6" t="str">
-        <f>VLOOKUP(A63,[1]Sheet1!$B:$B,1,FALSE)</f>
-        <v>苏州姑苏樾</v>
+      <c r="B63" s="6" t="s">
+        <v>102</v>
       </c>
       <c r="C63" t="s">
         <v>102</v>
@@ -5021,9 +4134,8 @@
       <c r="A64" t="s">
         <v>104</v>
       </c>
-      <c r="B64" s="6" t="str">
-        <f>VLOOKUP(A64,[1]Sheet1!$B:$B,1,FALSE)</f>
-        <v>昆山国际城市花园</v>
+      <c r="B64" s="6" t="s">
+        <v>104</v>
       </c>
       <c r="C64" t="s">
         <v>104</v>
@@ -5061,9 +4173,8 @@
       <c r="A65" t="s">
         <v>105</v>
       </c>
-      <c r="B65" s="6" t="str">
-        <f>VLOOKUP(A65,[1]Sheet1!$B:$B,1,FALSE)</f>
-        <v>昆山水岸世家</v>
+      <c r="B65" s="6" t="s">
+        <v>105</v>
       </c>
       <c r="C65" t="s">
         <v>105</v>
@@ -5101,9 +4212,8 @@
       <c r="A66" t="s">
         <v>106</v>
       </c>
-      <c r="B66" s="6" t="str">
-        <f>VLOOKUP(A66,[1]Sheet1!$B:$B,1,FALSE)</f>
-        <v>昆山鑫都汇</v>
+      <c r="B66" s="6" t="s">
+        <v>106</v>
       </c>
       <c r="C66" t="s">
         <v>106</v>
@@ -5143,9 +4253,8 @@
       <c r="A67" t="s">
         <v>107</v>
       </c>
-      <c r="B67" s="6" t="str">
-        <f>VLOOKUP(A67,[1]Sheet1!$B:$B,1,FALSE)</f>
-        <v>昆山陆家山水江南</v>
+      <c r="B67" s="6" t="s">
+        <v>107</v>
       </c>
       <c r="C67" t="s">
         <v>108</v>
@@ -5185,9 +4294,8 @@
       <c r="A68" t="s">
         <v>109</v>
       </c>
-      <c r="B68" s="6" t="str">
-        <f>VLOOKUP(A68,[1]Sheet1!$B:$B,1,FALSE)</f>
-        <v>上海壹品世家</v>
+      <c r="B68" s="6" t="s">
+        <v>109</v>
       </c>
       <c r="C68" t="s">
         <v>109</v>
@@ -5225,9 +4333,8 @@
       <c r="A69" t="s">
         <v>110</v>
       </c>
-      <c r="B69" s="6" t="str">
-        <f>VLOOKUP(A69,[1]Sheet1!$B:$B,1,FALSE)</f>
-        <v>西安鑫苑中心</v>
+      <c r="B69" s="6" t="s">
+        <v>110</v>
       </c>
       <c r="C69" t="s">
         <v>110</v>
@@ -5265,9 +4372,8 @@
       <c r="A70" t="s">
         <v>111</v>
       </c>
-      <c r="B70" s="6" t="str">
-        <f>VLOOKUP(A70,[1]Sheet1!$B:$B,1,FALSE)</f>
-        <v>长沙梅溪鑫苑名家</v>
+      <c r="B70" s="6" t="s">
+        <v>111</v>
       </c>
       <c r="C70" t="s">
         <v>111</v>
@@ -5305,9 +4411,8 @@
       <c r="A71" t="s">
         <v>112</v>
       </c>
-      <c r="B71" s="6" t="str">
-        <f>VLOOKUP(A71,[1]Sheet1!$B:$B,1,FALSE)</f>
-        <v>长沙鑫苑木莲世家</v>
+      <c r="B71" s="6" t="s">
+        <v>112</v>
       </c>
       <c r="C71" t="s">
         <v>112</v>
@@ -5345,9 +4450,8 @@
       <c r="A72" t="s">
         <v>113</v>
       </c>
-      <c r="B72" s="6" t="str">
-        <f>VLOOKUP(A72,[1]Sheet1!$B:$B,1,FALSE)</f>
-        <v>长沙鑫苑芙蓉鑫家</v>
+      <c r="B72" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="C72" t="s">
         <v>113</v>
@@ -5385,9 +4489,8 @@
       <c r="A73" t="s">
         <v>114</v>
       </c>
-      <c r="B73" s="6" t="str">
-        <f>VLOOKUP(A73,[1]Sheet1!$B:$B,1,FALSE)</f>
-        <v>西安大都汇</v>
+      <c r="B73" s="6" t="s">
+        <v>114</v>
       </c>
       <c r="C73" t="s">
         <v>114</v>
@@ -5425,9 +4528,8 @@
       <c r="A74" t="s">
         <v>115</v>
       </c>
-      <c r="B74" s="6" t="str">
-        <f>VLOOKUP(A74,[1]Sheet1!$B:$B,1,FALSE)</f>
-        <v>北京鑫都汇</v>
+      <c r="B74" s="6" t="s">
+        <v>115</v>
       </c>
       <c r="C74" t="s">
         <v>115</v>
@@ -5465,9 +4567,8 @@
       <c r="A75" t="s">
         <v>116</v>
       </c>
-      <c r="B75" s="6" t="str">
-        <f>VLOOKUP(A75,[1]Sheet1!$B:$B,1,FALSE)</f>
-        <v>天津汤泉世家</v>
+      <c r="B75" s="6" t="s">
+        <v>116</v>
       </c>
       <c r="C75" t="s">
         <v>116</v>
@@ -5505,9 +4606,8 @@
       <c r="A76" t="s">
         <v>117</v>
       </c>
-      <c r="B76" s="6" t="str">
-        <f>VLOOKUP(A76,[1]Sheet1!$B:$B,1,FALSE)</f>
-        <v>郑州国际新城三期A</v>
+      <c r="B76" s="6" t="s">
+        <v>117</v>
       </c>
       <c r="C76" t="s">
         <v>118</v>
@@ -5546,9 +4646,8 @@
       <c r="A77" t="s">
         <v>120</v>
       </c>
-      <c r="B77" s="6" t="str">
-        <f>VLOOKUP(A77,[1]Sheet1!$B:$B,1,FALSE)</f>
-        <v>郑州国际新城三期B</v>
+      <c r="B77" s="6" t="s">
+        <v>120</v>
       </c>
       <c r="C77" t="s">
         <v>121</v>
@@ -5587,9 +4686,8 @@
       <c r="A78" t="s">
         <v>123</v>
       </c>
-      <c r="B78" s="6" t="str">
-        <f>VLOOKUP(A78,[1]Sheet1!$B:$B,1,FALSE)</f>
-        <v>郑州国际新城三期C</v>
+      <c r="B78" s="6" t="s">
+        <v>123</v>
       </c>
       <c r="C78" t="s">
         <v>124</v>
@@ -5628,9 +4726,8 @@
       <c r="A79" t="s">
         <v>126</v>
       </c>
-      <c r="B79" s="6" t="str">
-        <f>VLOOKUP(A79,[1]Sheet1!$B:$B,1,FALSE)</f>
-        <v>郑州国际新城三期D</v>
+      <c r="B79" s="6" t="s">
+        <v>126</v>
       </c>
       <c r="C79" t="s">
         <v>127</v>
@@ -5707,9 +4804,8 @@
       <c r="A81" t="s">
         <v>130</v>
       </c>
-      <c r="B81" s="6" t="str">
-        <f>VLOOKUP(A81,[1]Sheet1!$B:$B,1,FALSE)</f>
-        <v>郑州金水观城一期</v>
+      <c r="B81" s="6" t="s">
+        <v>130</v>
       </c>
       <c r="C81" t="s">
         <v>131</v>
@@ -5748,9 +4844,8 @@
       <c r="A82" t="s">
         <v>132</v>
       </c>
-      <c r="B82" s="6" t="str">
-        <f>VLOOKUP(A82,[1]Sheet1!$B:$B,1,FALSE)</f>
-        <v>三门峡博丰明钻</v>
+      <c r="B82" s="6" t="s">
+        <v>132</v>
       </c>
       <c r="C82" t="s">
         <v>132</v>
@@ -5788,9 +4883,8 @@
       <c r="A83" t="s">
         <v>133</v>
       </c>
-      <c r="B83" s="6" t="str">
-        <f>VLOOKUP(A83,[1]Sheet1!$B:$B,1,FALSE)</f>
-        <v>三门峡灵宝锦悦华庭</v>
+      <c r="B83" s="6" t="s">
+        <v>133</v>
       </c>
       <c r="C83" t="s">
         <v>133</v>
@@ -5828,9 +4922,8 @@
       <c r="A84" t="s">
         <v>134</v>
       </c>
-      <c r="B84" s="6" t="str">
-        <f>VLOOKUP(A84,[1]Sheet1!$B:$B,1,FALSE)</f>
-        <v>三门峡书香苑</v>
+      <c r="B84" s="6" t="s">
+        <v>134</v>
       </c>
       <c r="C84" t="s">
         <v>134</v>
@@ -5868,9 +4961,8 @@
       <c r="A85" t="s">
         <v>135</v>
       </c>
-      <c r="B85" s="6" t="str">
-        <f>VLOOKUP(A85,[1]Sheet1!$B:$B,1,FALSE)</f>
-        <v>三门峡滨河花城</v>
+      <c r="B85" s="6" t="s">
+        <v>135</v>
       </c>
       <c r="C85" t="s">
         <v>135</v>
@@ -5908,9 +5000,8 @@
       <c r="A86" t="s">
         <v>136</v>
       </c>
-      <c r="B86" s="6" t="str">
-        <f>VLOOKUP(A86,[1]Sheet1!$B:$B,1,FALSE)</f>
-        <v>三门峡滨河湾</v>
+      <c r="B86" s="6" t="s">
+        <v>136</v>
       </c>
       <c r="C86" t="s">
         <v>136</v>
@@ -5948,9 +5039,8 @@
       <c r="A87" t="s">
         <v>137</v>
       </c>
-      <c r="B87" s="6" t="str">
-        <f>VLOOKUP(A87,[1]Sheet1!$B:$B,1,FALSE)</f>
-        <v>三门峡熙龙湾</v>
+      <c r="B87" s="6" t="s">
+        <v>137</v>
       </c>
       <c r="C87" t="s">
         <v>138</v>
@@ -6029,9 +5119,8 @@
       <c r="A89" t="s">
         <v>140</v>
       </c>
-      <c r="B89" s="6" t="str">
-        <f>VLOOKUP(A89,[1]Sheet1!$B:$B,1,FALSE)</f>
-        <v>三门峡安和苑</v>
+      <c r="B89" s="6" t="s">
+        <v>140</v>
       </c>
       <c r="C89" t="s">
         <v>140</v>
@@ -6068,9 +5157,8 @@
       <c r="A90" t="s">
         <v>142</v>
       </c>
-      <c r="B90" s="6" t="str">
-        <f>VLOOKUP(A90,[1]Sheet1!$B:$B,1,FALSE)</f>
-        <v>开封兰大豪庭</v>
+      <c r="B90" s="6" t="s">
+        <v>142</v>
       </c>
       <c r="C90" t="s">
         <v>142</v>
@@ -6107,9 +5195,8 @@
       <c r="A91" t="s">
         <v>144</v>
       </c>
-      <c r="B91" s="6" t="str">
-        <f>VLOOKUP(A91,[1]Sheet1!$B:$B,1,FALSE)</f>
-        <v>信阳香山御府</v>
+      <c r="B91" s="6" t="s">
+        <v>144</v>
       </c>
       <c r="C91" t="s">
         <v>145</v>
@@ -6148,9 +5235,8 @@
       <c r="A92" t="s">
         <v>146</v>
       </c>
-      <c r="B92" s="6" t="str">
-        <f>VLOOKUP(A92,[1]Sheet1!$B:$B,1,FALSE)</f>
-        <v>许昌禹州钧都府</v>
+      <c r="B92" s="6" t="s">
+        <v>146</v>
       </c>
       <c r="C92" t="s">
         <v>146</v>
@@ -6187,9 +5273,8 @@
       <c r="A93" t="s">
         <v>147</v>
       </c>
-      <c r="B93" s="6" t="str">
-        <f>VLOOKUP(A93,[1]Sheet1!$B:$B,1,FALSE)</f>
-        <v>周口西华迎宾壹号院</v>
+      <c r="B93" s="6" t="s">
+        <v>147</v>
       </c>
       <c r="C93" t="s">
         <v>147</v>
@@ -6226,9 +5311,8 @@
       <c r="A94" t="s">
         <v>149</v>
       </c>
-      <c r="B94" s="6" t="str">
-        <f>VLOOKUP(A94,[1]Sheet1!$B:$B,1,FALSE)</f>
-        <v>巩义天玺华府</v>
+      <c r="B94" s="6" t="s">
+        <v>149</v>
       </c>
       <c r="C94" t="s">
         <v>149</v>
@@ -6266,9 +5350,8 @@
       <c r="A95" t="s">
         <v>150</v>
       </c>
-      <c r="B95" s="6" t="str">
-        <f>VLOOKUP(A95,[1]Sheet1!$B:$B,1,FALSE)</f>
-        <v>信阳博林国际广场</v>
+      <c r="B95" s="6" t="s">
+        <v>150</v>
       </c>
       <c r="C95" t="s">
         <v>150</v>
@@ -6306,9 +5389,8 @@
       <c r="A96" t="s">
         <v>151</v>
       </c>
-      <c r="B96" s="6" t="str">
-        <f>VLOOKUP(A96,[1]Sheet1!$B:$B,1,FALSE)</f>
-        <v>驻马店泌阳尚东第一城</v>
+      <c r="B96" s="6" t="s">
+        <v>151</v>
       </c>
       <c r="C96" t="s">
         <v>151</v>
@@ -6346,9 +5428,8 @@
       <c r="A97" t="s">
         <v>152</v>
       </c>
-      <c r="B97" s="6" t="str">
-        <f>VLOOKUP(A97,[1]Sheet1!$B:$B,1,FALSE)</f>
-        <v>漯河伯爵山</v>
+      <c r="B97" s="6" t="s">
+        <v>152</v>
       </c>
       <c r="C97" t="s">
         <v>152</v>
@@ -6388,9 +5469,8 @@
       <c r="A98" t="s">
         <v>153</v>
       </c>
-      <c r="B98" s="6" t="str">
-        <f>VLOOKUP(A98,[1]Sheet1!$B:$B,1,FALSE)</f>
-        <v>漯河临颍绿城国际</v>
+      <c r="B98" s="6" t="s">
+        <v>153</v>
       </c>
       <c r="C98" t="s">
         <v>153</v>
@@ -6428,9 +5508,8 @@
       <c r="A99" t="s">
         <v>154</v>
       </c>
-      <c r="B99" s="6" t="str">
-        <f>VLOOKUP(A99,[1]Sheet1!$B:$B,1,FALSE)</f>
-        <v>漯河六和世家</v>
+      <c r="B99" s="6" t="s">
+        <v>154</v>
       </c>
       <c r="C99" t="s">
         <v>154</v>
@@ -6468,9 +5547,8 @@
       <c r="A100" t="s">
         <v>155</v>
       </c>
-      <c r="B100" s="6" t="str">
-        <f>VLOOKUP(A100,[1]Sheet1!$B:$B,1,FALSE)</f>
-        <v>漯河滨湖国际</v>
+      <c r="B100" s="6" t="s">
+        <v>155</v>
       </c>
       <c r="C100" t="s">
         <v>155</v>
@@ -6508,9 +5586,8 @@
       <c r="A101" t="s">
         <v>156</v>
       </c>
-      <c r="B101" s="6" t="str">
-        <f>VLOOKUP(A101,[1]Sheet1!$B:$B,1,FALSE)</f>
-        <v>漯河尚书房</v>
+      <c r="B101" s="6" t="s">
+        <v>156</v>
       </c>
       <c r="C101" t="s">
         <v>156</v>
@@ -6548,9 +5625,8 @@
       <c r="A102" t="s">
         <v>157</v>
       </c>
-      <c r="B102" s="6" t="str">
-        <f>VLOOKUP(A102,[1]Sheet1!$B:$B,1,FALSE)</f>
-        <v>郑州财智名座</v>
+      <c r="B102" s="6" t="s">
+        <v>157</v>
       </c>
       <c r="C102" t="s">
         <v>157</v>
@@ -6588,9 +5664,8 @@
       <c r="A103" t="s">
         <v>158</v>
       </c>
-      <c r="B103" s="6" t="str">
-        <f>VLOOKUP(A103,[1]Sheet1!$B:$B,1,FALSE)</f>
-        <v>郑州明天璀丽华庭</v>
+      <c r="B103" s="6" t="s">
+        <v>158</v>
       </c>
       <c r="C103" t="s">
         <v>158</v>
@@ -6628,9 +5703,8 @@
       <c r="A104" t="s">
         <v>159</v>
       </c>
-      <c r="B104" s="6" t="str">
-        <f>VLOOKUP(A104,[1]Sheet1!$B:$B,1,FALSE)</f>
-        <v>郑州奥体公馆</v>
+      <c r="B104" s="6" t="s">
+        <v>159</v>
       </c>
       <c r="C104" t="s">
         <v>160</v>
@@ -6668,9 +5742,8 @@
       <c r="A105" t="s">
         <v>161</v>
       </c>
-      <c r="B105" s="6" t="str">
-        <f>VLOOKUP(A105,[1]Sheet1!$B:$B,1,FALSE)</f>
-        <v>郑州正道和苑</v>
+      <c r="B105" s="6" t="s">
+        <v>161</v>
       </c>
       <c r="C105" t="s">
         <v>161</v>
@@ -6708,9 +5781,8 @@
       <c r="A106" t="s">
         <v>162</v>
       </c>
-      <c r="B106" s="6" t="str">
-        <f>VLOOKUP(A106,[1]Sheet1!$B:$B,1,FALSE)</f>
-        <v>郑州中林嘉苑</v>
+      <c r="B106" s="6" t="s">
+        <v>162</v>
       </c>
       <c r="C106" t="s">
         <v>163</v>
@@ -6748,9 +5820,8 @@
       <c r="A107" t="s">
         <v>164</v>
       </c>
-      <c r="B107" s="6" t="str">
-        <f>VLOOKUP(A107,[1]Sheet1!$B:$B,1,FALSE)</f>
-        <v>郑州古德佳苑</v>
+      <c r="B107" s="6" t="s">
+        <v>164</v>
       </c>
       <c r="C107" t="s">
         <v>164</v>
@@ -6788,9 +5859,8 @@
       <c r="A108" t="s">
         <v>165</v>
       </c>
-      <c r="B108" s="6" t="str">
-        <f>VLOOKUP(A108,[1]Sheet1!$B:$B,1,FALSE)</f>
-        <v>鹤壁聆海御园</v>
+      <c r="B108" s="6" t="s">
+        <v>165</v>
       </c>
       <c r="C108" t="s">
         <v>165</v>
@@ -6828,9 +5898,8 @@
       <c r="A109" t="s">
         <v>166</v>
       </c>
-      <c r="B109" s="6" t="str">
-        <f>VLOOKUP(A109,[1]Sheet1!$B:$B,1,FALSE)</f>
-        <v>濮阳翰林居</v>
+      <c r="B109" s="6" t="s">
+        <v>166</v>
       </c>
       <c r="C109" t="s">
         <v>166</v>
@@ -6868,9 +5937,8 @@
       <c r="A110" t="s">
         <v>168</v>
       </c>
-      <c r="B110" s="6" t="str">
-        <f>VLOOKUP(A110,[1]Sheet1!$B:$B,1,FALSE)</f>
-        <v>濮阳龙湖华苑</v>
+      <c r="B110" s="6" t="s">
+        <v>168</v>
       </c>
       <c r="C110" t="s">
         <v>168</v>
@@ -6908,9 +5976,8 @@
       <c r="A111" t="s">
         <v>169</v>
       </c>
-      <c r="B111" s="6" t="str">
-        <f>VLOOKUP(A111,[1]Sheet1!$B:$B,1,FALSE)</f>
-        <v>濮阳银堤漫步</v>
+      <c r="B111" s="6" t="s">
+        <v>169</v>
       </c>
       <c r="C111" t="s">
         <v>169</v>
@@ -6948,9 +6015,8 @@
       <c r="A112" t="s">
         <v>170</v>
       </c>
-      <c r="B112" s="6" t="str">
-        <f>VLOOKUP(A112,[1]Sheet1!$B:$B,1,FALSE)</f>
-        <v>濮阳中房锦绣龙城</v>
+      <c r="B112" s="6" t="s">
+        <v>170</v>
       </c>
       <c r="C112" t="s">
         <v>171</v>
@@ -6988,9 +6054,8 @@
       <c r="A113" t="s">
         <v>172</v>
       </c>
-      <c r="B113" s="6" t="str">
-        <f>VLOOKUP(A113,[1]Sheet1!$B:$B,1,FALSE)</f>
-        <v>新乡褐石公园</v>
+      <c r="B113" s="6" t="s">
+        <v>172</v>
       </c>
       <c r="C113" t="s">
         <v>173</v>
@@ -7028,9 +6093,8 @@
       <c r="A114" t="s">
         <v>174</v>
       </c>
-      <c r="B114" s="6" t="str">
-        <f>VLOOKUP(A114,[1]Sheet1!$B:$B,1,FALSE)</f>
-        <v>信阳南湖燕园</v>
+      <c r="B114" s="6" t="s">
+        <v>174</v>
       </c>
       <c r="C114" t="s">
         <v>174</v>
@@ -7068,9 +6132,8 @@
       <c r="A115" t="s">
         <v>175</v>
       </c>
-      <c r="B115" s="6" t="str">
-        <f>VLOOKUP(A115,[1]Sheet1!$B:$B,1,FALSE)</f>
-        <v>安阳水木兰亭</v>
+      <c r="B115" s="6" t="s">
+        <v>175</v>
       </c>
       <c r="C115" t="s">
         <v>175</v>
@@ -7108,9 +6171,8 @@
       <c r="A116" t="s">
         <v>176</v>
       </c>
-      <c r="B116" s="6" t="str">
-        <f>VLOOKUP(A116,[1]Sheet1!$B:$B,1,FALSE)</f>
-        <v>济南青岛金光大厦</v>
+      <c r="B116" s="6" t="s">
+        <v>176</v>
       </c>
       <c r="C116" t="s">
         <v>177</v>
@@ -7150,9 +6212,8 @@
       <c r="A117" t="s">
         <v>178</v>
       </c>
-      <c r="B117" s="6" t="str">
-        <f>VLOOKUP(A117,[1]Sheet1!$B:$B,1,FALSE)</f>
-        <v>滨海华芳颐景花园</v>
+      <c r="B117" s="6" t="s">
+        <v>178</v>
       </c>
       <c r="C117" t="s">
         <v>178</v>
@@ -7190,9 +6251,8 @@
       <c r="A118" t="s">
         <v>179</v>
       </c>
-      <c r="B118" s="6" t="str">
-        <f>VLOOKUP(A118,[1]Sheet1!$B:$B,1,FALSE)</f>
-        <v>郑州小铺新苑</v>
+      <c r="B118" s="6" t="s">
+        <v>179</v>
       </c>
       <c r="C118" t="s">
         <v>180</v>
@@ -7230,9 +6290,8 @@
       <c r="A119" t="s">
         <v>181</v>
       </c>
-      <c r="B119" s="6" t="str">
-        <f>VLOOKUP(A119,[1]Sheet1!$B:$B,1,FALSE)</f>
-        <v>三门峡城明佳苑</v>
+      <c r="B119" s="6" t="s">
+        <v>181</v>
       </c>
       <c r="C119" t="s">
         <v>181</v>
@@ -7270,9 +6329,8 @@
       <c r="A120" t="s">
         <v>182</v>
       </c>
-      <c r="B120" s="6" t="str">
-        <f>VLOOKUP(A120,[1]Sheet1!$B:$B,1,FALSE)</f>
-        <v>漯河锦华国际</v>
+      <c r="B120" s="6" t="s">
+        <v>182</v>
       </c>
       <c r="C120" t="s">
         <v>182</v>
@@ -7310,9 +6368,8 @@
       <c r="A121" t="s">
         <v>183</v>
       </c>
-      <c r="B121" s="6" t="str">
-        <f>VLOOKUP(A121,[1]Sheet1!$B:$B,1,FALSE)</f>
-        <v>漯河世界贸易中心</v>
+      <c r="B121" s="6" t="s">
+        <v>183</v>
       </c>
       <c r="C121" t="s">
         <v>184</v>
@@ -7426,9 +6483,8 @@
       <c r="A124" t="s">
         <v>189</v>
       </c>
-      <c r="B124" s="6" t="str">
-        <f>VLOOKUP(A124,[1]Sheet1!$B:$B,1,FALSE)</f>
-        <v>驻马店湖滨新城</v>
+      <c r="B124" s="6" t="s">
+        <v>189</v>
       </c>
       <c r="C124" t="s">
         <v>189</v>
@@ -7466,9 +6522,8 @@
       <c r="A125" t="s">
         <v>190</v>
       </c>
-      <c r="B125" s="6" t="str">
-        <f>VLOOKUP(A125,[1]Sheet1!$B:$B,1,FALSE)</f>
-        <v>驻马店中原国际城</v>
+      <c r="B125" s="6" t="s">
+        <v>190</v>
       </c>
       <c r="C125" t="s">
         <v>190</v>
@@ -7505,9 +6560,8 @@
       <c r="A126" t="s">
         <v>191</v>
       </c>
-      <c r="B126" s="6" t="str">
-        <f>VLOOKUP(A126,[1]Sheet1!$B:$B,1,FALSE)</f>
-        <v>驻马店高铁壹号</v>
+      <c r="B126" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="C126" t="s">
         <v>191</v>
@@ -7586,9 +6640,8 @@
       <c r="A128" t="s">
         <v>194</v>
       </c>
-      <c r="B128" s="6" t="str">
-        <f>VLOOKUP(A128,[1]Sheet1!$B:$B,1,FALSE)</f>
-        <v>郑州宏江瀚苑</v>
+      <c r="B128" s="6" t="s">
+        <v>194</v>
       </c>
       <c r="C128" t="s">
         <v>195</v>
@@ -7628,9 +6681,8 @@
       <c r="A129" t="s">
         <v>197</v>
       </c>
-      <c r="B129" s="6" t="str">
-        <f>VLOOKUP(A129,[1]Sheet1!$B:$B,1,FALSE)</f>
-        <v>新乡金谷东方广场</v>
+      <c r="B129" s="6" t="s">
+        <v>197</v>
       </c>
       <c r="C129" t="s">
         <v>197</v>
@@ -7668,9 +6720,8 @@
       <c r="A130" t="s">
         <v>198</v>
       </c>
-      <c r="B130" s="6" t="str">
-        <f>VLOOKUP(A130,[1]Sheet1!$B:$B,1,FALSE)</f>
-        <v>信阳淮滨福地华府</v>
+      <c r="B130" s="6" t="s">
+        <v>198</v>
       </c>
       <c r="C130" t="s">
         <v>199</v>
@@ -7710,9 +6761,8 @@
       <c r="A131" t="s">
         <v>200</v>
       </c>
-      <c r="B131" s="6" t="str">
-        <f>VLOOKUP(A131,[1]Sheet1!$B:$B,1,FALSE)</f>
-        <v>钢城百一至百五生活区</v>
+      <c r="B131" s="6" t="s">
+        <v>200</v>
       </c>
       <c r="C131" t="s">
         <v>200</v>
@@ -7752,9 +6802,8 @@
       <c r="A132" t="s">
         <v>201</v>
       </c>
-      <c r="B132" s="6" t="str">
-        <f>VLOOKUP(A132,[1]Sheet1!$B:$B,1,FALSE)</f>
-        <v>中原制药厂</v>
+      <c r="B132" s="6" t="s">
+        <v>201</v>
       </c>
       <c r="C132" t="s">
         <v>201</v>
@@ -7792,9 +6841,8 @@
       <c r="A133" t="s">
         <v>202</v>
       </c>
-      <c r="B133" s="6" t="str">
-        <f>VLOOKUP(A133,[1]Sheet1!$B:$B,1,FALSE)</f>
-        <v>驻马店兴悦一品</v>
+      <c r="B133" s="6" t="s">
+        <v>202</v>
       </c>
       <c r="C133" t="s">
         <v>202</v>
@@ -7831,9 +6879,8 @@
       <c r="A134" t="s">
         <v>204</v>
       </c>
-      <c r="B134" s="6" t="str">
-        <f>VLOOKUP(A134,[1]Sheet1!$B:$B,1,FALSE)</f>
-        <v>新沂金鳞府</v>
+      <c r="B134" s="6" t="s">
+        <v>204</v>
       </c>
       <c r="C134" t="s">
         <v>205</v>
@@ -8032,9 +7079,8 @@
       <c r="A139" t="s">
         <v>212</v>
       </c>
-      <c r="B139" s="6" t="str">
-        <f>VLOOKUP(A139,[1]Sheet1!$B:$B,1,FALSE)</f>
-        <v>淮安佳兴北苑</v>
+      <c r="B139" s="6" t="s">
+        <v>212</v>
       </c>
       <c r="C139" t="s">
         <v>212</v>
@@ -8074,9 +7120,8 @@
       <c r="A140" t="s">
         <v>213</v>
       </c>
-      <c r="B140" s="6" t="str">
-        <f>VLOOKUP(A140,[1]Sheet1!$B:$B,1,FALSE)</f>
-        <v>淮安佳兴南苑</v>
+      <c r="B140" s="6" t="s">
+        <v>213</v>
       </c>
       <c r="C140" t="s">
         <v>213</v>
@@ -8116,9 +7161,8 @@
       <c r="A141" t="s">
         <v>214</v>
       </c>
-      <c r="B141" s="6" t="str">
-        <f>VLOOKUP(A141,[1]Sheet1!$B:$B,1,FALSE)</f>
-        <v>淮安南方花园</v>
+      <c r="B141" s="6" t="s">
+        <v>214</v>
       </c>
       <c r="C141" t="s">
         <v>214</v>
@@ -8158,9 +7202,8 @@
       <c r="A142" t="s">
         <v>215</v>
       </c>
-      <c r="B142" s="6" t="str">
-        <f>VLOOKUP(A142,[1]Sheet1!$B:$B,1,FALSE)</f>
-        <v>淮安严赵花园</v>
+      <c r="B142" s="6" t="s">
+        <v>215</v>
       </c>
       <c r="C142" t="s">
         <v>215</v>
@@ -8200,9 +7243,8 @@
       <c r="A143" t="s">
         <v>216</v>
       </c>
-      <c r="B143" s="6" t="str">
-        <f>VLOOKUP(A143,[1]Sheet1!$B:$B,1,FALSE)</f>
-        <v>淮安盐河花苑</v>
+      <c r="B143" s="6" t="s">
+        <v>216</v>
       </c>
       <c r="C143" t="s">
         <v>216</v>
@@ -8257,7 +7299,6 @@
       <c r="F144" s="9">
         <v>43252</v>
       </c>
-      <c r="G144" s="2"/>
       <c r="H144" s="2" t="s">
         <v>17</v>
       </c>
@@ -8296,7 +7337,6 @@
       <c r="F145" s="9">
         <v>43252</v>
       </c>
-      <c r="G145" s="2"/>
       <c r="H145" s="2" t="s">
         <v>17</v>
       </c>
@@ -8320,9 +7360,8 @@
       <c r="A146" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="B146" s="10" t="str">
-        <f>VLOOKUP(A146,[1]Sheet1!$B:$B,1,FALSE)</f>
-        <v>焦作中弘名瑞城</v>
+      <c r="B146" s="10" t="s">
+        <v>217</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>217</v>
@@ -8360,9 +7399,8 @@
       <c r="A147" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="B147" s="10" t="str">
-        <f>VLOOKUP(A147,[1]Sheet1!$B:$B,1,FALSE)</f>
-        <v>淮安黄元小区</v>
+      <c r="B147" s="10" t="s">
+        <v>220</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>220</v>
@@ -8443,9 +7481,8 @@
       <c r="A149" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="B149" s="10" t="str">
-        <f>VLOOKUP(A149,[1]Sheet1!$B:$B,1,FALSE)</f>
-        <v>焦作鹿港小镇</v>
+      <c r="B149" s="10" t="s">
+        <v>222</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>222</v>
@@ -8522,9 +7559,8 @@
       <c r="A151" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="B151" s="10" t="str">
-        <f>VLOOKUP(A151,[1]Sheet1!$B:$B,1,FALSE)</f>
-        <v>郑州鑫家二期</v>
+      <c r="B151" s="10" t="s">
+        <v>224</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>224</v>
@@ -8562,9 +7598,8 @@
       <c r="A152" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="B152" s="10" t="str">
-        <f>VLOOKUP(A152,[1]Sheet1!$B:$B,1,FALSE)</f>
-        <v>郑州鑫家二期</v>
+      <c r="B152" s="8" t="s">
+        <v>225</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>224</v>
